--- a/input/vendas.xlsx
+++ b/input/vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yohann Fredd\Documents\UiPath\prj_primeiroProjeto\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C649B574-3222-44E8-BE2E-23712DE4293B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DA6C26-585A-4A70-99CF-F7E3798954B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24930" yWindow="4305" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
